--- a/manuscript/data/BayesianFitForecast/output/SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10/data-SIRV_two_strain-Influenza-negativebinomial-Influenza A-cal-17-fcst-10.xlsx
+++ b/manuscript/data/BayesianFitForecast/output/SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10/data-SIRV_two_strain-Influenza-negativebinomial-Influenza A-cal-17-fcst-10.xlsx
@@ -383,13 +383,13 @@
         <v>289</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +400,13 @@
         <v>242</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
@@ -417,13 +417,13 @@
         <v>285</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>88</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         <v>307</v>
       </c>
       <c r="C5" t="n">
-        <v>3.5</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>132</v>
+        <v>649.1</v>
       </c>
     </row>
     <row r="6">
@@ -451,13 +451,13 @@
         <v>343</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>106.5</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>184</v>
+        <v>1412.7</v>
       </c>
     </row>
     <row r="7">
@@ -468,13 +468,13 @@
         <v>354</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>230.5</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>282</v>
+        <v>2838.2</v>
       </c>
     </row>
     <row r="8">
@@ -485,13 +485,13 @@
         <v>396</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>418.1</v>
+        <v>5635.3</v>
       </c>
     </row>
     <row r="9">
@@ -502,13 +502,13 @@
         <v>454</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>875</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>586.1</v>
+        <v>12087.9</v>
       </c>
     </row>
     <row r="10">
@@ -519,13 +519,13 @@
         <v>499</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>1857.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>733</v>
+        <v>23299.1</v>
       </c>
     </row>
     <row r="11">
@@ -536,13 +536,13 @@
         <v>632</v>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>3263.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>1335.7</v>
+        <v>50033.9</v>
       </c>
     </row>
     <row r="12">
@@ -553,13 +553,13 @@
         <v>841</v>
       </c>
       <c r="C12" t="n">
-        <v>45</v>
+        <v>6520</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>1967.9</v>
+        <v>92566.8</v>
       </c>
     </row>
     <row r="13">
@@ -570,13 +570,13 @@
         <v>1029</v>
       </c>
       <c r="C13" t="n">
-        <v>72.5</v>
+        <v>11888</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>23.9</v>
       </c>
       <c r="E13" t="n">
-        <v>2965.3</v>
+        <v>165236.2</v>
       </c>
     </row>
     <row r="14">
@@ -587,13 +587,13 @@
         <v>1186</v>
       </c>
       <c r="C14" t="n">
-        <v>117</v>
+        <v>21216</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="E14" t="n">
-        <v>4199.3</v>
+        <v>298179.3</v>
       </c>
     </row>
     <row r="15">
@@ -604,13 +604,13 @@
         <v>1852</v>
       </c>
       <c r="C15" t="n">
-        <v>169</v>
+        <v>29629</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E15" t="n">
-        <v>6696.8</v>
+        <v>359811.5</v>
       </c>
     </row>
     <row r="16">
@@ -621,13 +621,13 @@
         <v>3238</v>
       </c>
       <c r="C16" t="n">
-        <v>243</v>
+        <v>31906.5</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E16" t="n">
-        <v>9644.8</v>
+        <v>379376.6</v>
       </c>
     </row>
     <row r="17">
@@ -638,13 +638,13 @@
         <v>4388</v>
       </c>
       <c r="C17" t="n">
-        <v>340.5</v>
+        <v>28060.5</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E17" t="n">
-        <v>12590.7</v>
+        <v>315414.5</v>
       </c>
     </row>
     <row r="18">
@@ -655,13 +655,13 @@
         <v>5182</v>
       </c>
       <c r="C18" t="n">
-        <v>521</v>
+        <v>10134</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>19721.5</v>
+        <v>198451.3</v>
       </c>
     </row>
     <row r="19">
@@ -672,13 +672,13 @@
         <v>7632</v>
       </c>
       <c r="C19" t="n">
-        <v>752.5</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>30456.9</v>
+        <v>120622.9</v>
       </c>
     </row>
     <row r="20">
@@ -689,13 +689,13 @@
         <v>11658</v>
       </c>
       <c r="C20" t="n">
-        <v>927.5</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>39133.9</v>
+        <v>47518</v>
       </c>
     </row>
     <row r="21">
@@ -706,13 +706,13 @@
         <v>16961</v>
       </c>
       <c r="C21" t="n">
-        <v>1587.5</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>57479.9</v>
+        <v>7756.5</v>
       </c>
     </row>
     <row r="22">
@@ -723,13 +723,13 @@
         <v>24134</v>
       </c>
       <c r="C22" t="n">
-        <v>2191</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>84831.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -740,13 +740,13 @@
         <v>24698</v>
       </c>
       <c r="C23" t="n">
-        <v>2696.5</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>117613.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>17077</v>
       </c>
       <c r="C24" t="n">
-        <v>4074</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>151217.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -774,13 +774,13 @@
         <v>15909</v>
       </c>
       <c r="C25" t="n">
-        <v>5603</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>225100.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>14472</v>
       </c>
       <c r="C26" t="n">
-        <v>6082.5</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>305068.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -808,13 +808,13 @@
         <v>15499</v>
       </c>
       <c r="C27" t="n">
-        <v>9140</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>382130.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -825,13 +825,13 @@
         <v>14749</v>
       </c>
       <c r="C28" t="n">
-        <v>12410.5</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>458648.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
